--- a/po_analysis_by_asin/B0BSR8XMJ6_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8XMJ6_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,49 +476,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45151.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45158.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45165.99999999999</v>
-      </c>
-      <c r="B10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -533,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,25 +539,9 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45107.99999999999</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45169.99999999999</v>
-      </c>
-      <c r="B5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSR8XMJ6_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8XMJ6_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -543,6 +544,243 @@
       </c>
       <c r="B3" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6401267886599387</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.576637995611057</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7339035730711407</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.680325196187462</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7668402674610344</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.73959565760115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.598971373955223</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.511560414816954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.718274394136632</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.630409630442706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.741750317418678</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.666604854938437</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.855388931603201</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.7288823236672</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.757689233461299</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.758932259930084</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.82580897067512</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.758940829523283</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.847851586905807</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.858206247065898</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.946260015748495</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.824871671411912</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.923779715814561</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.951437268348742</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.990558338329988</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.976788213040032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.045935077608099</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.983631674262544</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSR8XMJ6_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSR8XMJ6_po_data.xlsx
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,16 +576,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -594,12 +584,6 @@
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.6401267886599387</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.576637995611057</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -608,12 +592,6 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.7339035730711407</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.680325196187462</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -622,12 +600,6 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.7668402674610344</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.73959565760115</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -636,12 +608,6 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.598971373955223</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.511560414816954</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -650,12 +616,6 @@
       <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.718274394136632</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.630409630442706</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -664,12 +624,6 @@
       <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.741750317418678</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.666604854938437</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -678,12 +632,6 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.855388931603201</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.7288823236672</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -692,12 +640,6 @@
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.757689233461299</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.758932259930084</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -706,12 +648,6 @@
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.82580897067512</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.758940829523283</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -720,12 +656,6 @@
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.847851586905807</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.858206247065898</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -734,12 +664,6 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.946260015748495</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.824871671411912</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -748,12 +672,6 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.923779715814561</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.951437268348742</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -762,12 +680,6 @@
       <c r="B14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.990558338329988</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.976788213040032</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -775,12 +687,6 @@
       </c>
       <c r="B15" t="n">
         <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.045935077608099</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.983631674262544</v>
       </c>
     </row>
   </sheetData>
